--- a/natmiOut/OldD0/LR-pairs_lrc2p/C3-Nrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/C3-Nrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.154991114260371</v>
+        <v>46.85851166666667</v>
       </c>
       <c r="H2">
-        <v>8.154991114260371</v>
+        <v>140.575535</v>
       </c>
       <c r="I2">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="J2">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N2">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O2">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P2">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q2">
-        <v>342.5058097909919</v>
+        <v>2479.298081651376</v>
       </c>
       <c r="R2">
-        <v>342.5058097909919</v>
+        <v>22313.68273486238</v>
       </c>
       <c r="S2">
-        <v>0.01020293198895463</v>
+        <v>0.05905286953281434</v>
       </c>
       <c r="T2">
-        <v>0.01020293198895463</v>
+        <v>0.05905286953281434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.154991114260371</v>
+        <v>46.85851166666667</v>
       </c>
       <c r="H3">
-        <v>8.154991114260371</v>
+        <v>140.575535</v>
       </c>
       <c r="I3">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="J3">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N3">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P3">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q3">
-        <v>382.6474642430652</v>
+        <v>2214.535994779847</v>
       </c>
       <c r="R3">
-        <v>382.6474642430652</v>
+        <v>19930.82395301862</v>
       </c>
       <c r="S3">
-        <v>0.01139871482997724</v>
+        <v>0.05274666493040277</v>
       </c>
       <c r="T3">
-        <v>0.01139871482997724</v>
+        <v>0.05274666493040278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.154991114260371</v>
+        <v>46.85851166666667</v>
       </c>
       <c r="H4">
-        <v>8.154991114260371</v>
+        <v>140.575535</v>
       </c>
       <c r="I4">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="J4">
-        <v>0.0280441144078711</v>
+        <v>0.1419057303676978</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N4">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P4">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q4">
-        <v>216.2694587193783</v>
+        <v>1263.989952432752</v>
       </c>
       <c r="R4">
-        <v>216.2694587193783</v>
+        <v>11375.90957189477</v>
       </c>
       <c r="S4">
-        <v>0.006442467588939224</v>
+        <v>0.0301061959044807</v>
       </c>
       <c r="T4">
-        <v>0.006442467588939224</v>
+        <v>0.0301061959044807</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>282.471973843355</v>
+        <v>283.1772156666667</v>
       </c>
       <c r="H5">
-        <v>282.471973843355</v>
+        <v>849.531647</v>
       </c>
       <c r="I5">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889615</v>
       </c>
       <c r="J5">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889616</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N5">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O5">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P5">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q5">
-        <v>11863.69068818451</v>
+        <v>14982.99247240449</v>
       </c>
       <c r="R5">
-        <v>11863.69068818451</v>
+        <v>134846.9322516404</v>
       </c>
       <c r="S5">
-        <v>0.3534083970820996</v>
+        <v>0.3568706426355616</v>
       </c>
       <c r="T5">
-        <v>0.3534083970820996</v>
+        <v>0.3568706426355617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>282.471973843355</v>
+        <v>283.1772156666667</v>
       </c>
       <c r="H6">
-        <v>282.471973843355</v>
+        <v>849.531647</v>
       </c>
       <c r="I6">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889615</v>
       </c>
       <c r="J6">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889616</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N6">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P6">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q6">
-        <v>13254.11432047849</v>
+        <v>13382.97173107758</v>
       </c>
       <c r="R6">
-        <v>13254.11432047849</v>
+        <v>120446.7455796982</v>
       </c>
       <c r="S6">
-        <v>0.3948278339225659</v>
+        <v>0.3187607369382034</v>
       </c>
       <c r="T6">
-        <v>0.3948278339225659</v>
+        <v>0.3187607369382034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>282.471973843355</v>
+        <v>283.1772156666667</v>
       </c>
       <c r="H7">
-        <v>282.471973843355</v>
+        <v>849.531647</v>
       </c>
       <c r="I7">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889615</v>
       </c>
       <c r="J7">
-        <v>0.9713899427343139</v>
+        <v>0.8575703363889616</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N7">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P7">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q7">
-        <v>7491.12537715345</v>
+        <v>7638.594198354982</v>
       </c>
       <c r="R7">
-        <v>7491.12537715345</v>
+        <v>68747.34778519484</v>
       </c>
       <c r="S7">
-        <v>0.2231537117296484</v>
+        <v>0.1819389568151965</v>
       </c>
       <c r="T7">
-        <v>0.2231537117296484</v>
+        <v>0.1819389568151965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.164571393110754</v>
+        <v>0.1730073333333333</v>
       </c>
       <c r="H8">
-        <v>0.164571393110754</v>
+        <v>0.519022</v>
       </c>
       <c r="I8">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="J8">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N8">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O8">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P8">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q8">
-        <v>6.911921481712457</v>
+        <v>9.153870543226887</v>
       </c>
       <c r="R8">
-        <v>6.911921481712457</v>
+        <v>82.384834889042</v>
       </c>
       <c r="S8">
-        <v>0.0002058997622082424</v>
+        <v>0.0002180303880804036</v>
       </c>
       <c r="T8">
-        <v>0.0002058997622082424</v>
+        <v>0.0002180303880804036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.164571393110754</v>
+        <v>0.1730073333333333</v>
       </c>
       <c r="H9">
-        <v>0.164571393110754</v>
+        <v>0.519022</v>
       </c>
       <c r="I9">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="J9">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N9">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P9">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q9">
-        <v>7.721998145486647</v>
+        <v>8.176336665427776</v>
       </c>
       <c r="R9">
-        <v>7.721998145486647</v>
+        <v>73.58702998884999</v>
       </c>
       <c r="S9">
-        <v>0.0002300311984351811</v>
+        <v>0.0001947471124723623</v>
       </c>
       <c r="T9">
-        <v>0.0002300311984351811</v>
+        <v>0.0001947471124723623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.164571393110754</v>
+        <v>0.1730073333333333</v>
       </c>
       <c r="H10">
-        <v>0.164571393110754</v>
+        <v>0.519022</v>
       </c>
       <c r="I10">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="J10">
-        <v>0.000565942857815033</v>
+        <v>0.000523933243340694</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N10">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P10">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q10">
-        <v>4.364415069259684</v>
+        <v>4.666804882453778</v>
       </c>
       <c r="R10">
-        <v>4.364415069259684</v>
+        <v>42.001243942084</v>
       </c>
       <c r="S10">
-        <v>0.0001300118971716095</v>
+        <v>0.0001111557427879281</v>
       </c>
       <c r="T10">
-        <v>0.0001300118971716095</v>
+        <v>0.0001111557427879281</v>
       </c>
     </row>
   </sheetData>
